--- a/data/inventory/lci-euro2.xlsx
+++ b/data/inventory/lci-euro2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{13570DBC-3BCA-49C6-A6DF-0FAEA44BEE66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E2104C33-EB7D-48B2-89A1-BC624A158ED8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A29FCD7-6AB1-4C3E-8F49-D4D450024C08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="euro 2" sheetId="1" r:id="rId1"/>
@@ -258,11 +257,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +358,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,19 +670,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB1EDB4-458C-49E2-ADD7-67DCB28E2835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="K401" sqref="K401"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="J453" sqref="J453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -691,7 +690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -699,7 +698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -707,7 +706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -715,7 +714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -723,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -731,7 +730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -739,12 +738,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -767,7 +766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -784,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -801,12 +800,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.20824304199218799</v>
+        <v>0.19836367797851601</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -818,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -835,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -852,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -869,7 +868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -886,12 +885,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -903,12 +902,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -920,12 +919,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>1.0480801574885799E-6</v>
+        <v>9.9835766013711683E-7</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -937,7 +936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -957,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -977,7 +976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -997,12 +996,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
-        <v>6.5505012512207E-2</v>
+        <v>6.2397354125976599E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1017,7 +1016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1257,12 +1256,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1319,12 +1318,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>8.7340118408203091E-2</v>
+        <v>8.0385345458984403E-2</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1336,7 +1335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1404,12 +1403,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1421,12 +1420,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1438,12 +1437,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52">
-        <v>4.3957983143627601E-7</v>
+        <v>4.0457671275362398E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1455,7 +1454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1515,12 +1514,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>2.7473739624023399E-2</v>
+        <v>2.5286045074462901E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1535,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1775,12 +1774,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1837,12 +1836,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0.15187179565429701</v>
+        <v>0.145111373901367</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1854,7 +1853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1922,12 +1921,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1939,12 +1938,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1956,12 +1955,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84">
-        <v>7.6436554081737999E-7</v>
+        <v>7.30340601876378E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1973,7 +1972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2033,12 +2032,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
       <c r="B88">
-        <v>4.77728462219238E-2</v>
+        <v>4.56462860107422E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2053,7 +2052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2293,12 +2292,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2355,12 +2354,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
       <c r="B109">
-        <v>8.7340118408203091E-2</v>
+        <v>8.0385345458984403E-2</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2372,7 +2371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2440,12 +2439,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2457,12 +2456,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2474,12 +2473,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116">
-        <v>4.3957983143627601E-7</v>
+        <v>4.0457671275362398E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2491,7 +2490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2551,12 +2550,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120">
-        <v>2.7473739624023399E-2</v>
+        <v>2.5286045074462901E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2571,7 +2570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2811,12 +2810,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2873,12 +2872,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
       <c r="B141">
-        <v>0.20824304199218799</v>
+        <v>0.19836367797851601</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2890,7 +2889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2958,12 +2957,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -2975,12 +2974,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -2992,12 +2991,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
       <c r="B148">
-        <v>1.0480801574885799E-6</v>
+        <v>9.9835766013711683E-7</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3009,7 +3008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3069,12 +3068,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
       <c r="B152">
-        <v>6.5505012512207E-2</v>
+        <v>6.2397354125976599E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3089,7 +3088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3329,12 +3328,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3391,12 +3390,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
       <c r="B173">
-        <v>8.7340118408203091E-2</v>
+        <v>8.0385345458984403E-2</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3408,7 +3407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3476,12 +3475,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3493,12 +3492,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
       <c r="B179">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3510,12 +3509,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
       <c r="B180">
-        <v>4.3957983143627601E-7</v>
+        <v>4.0457671275362398E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3527,7 +3526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3587,12 +3586,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
       <c r="B184">
-        <v>2.7473739624023399E-2</v>
+        <v>2.5286045074462901E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3607,7 +3606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3847,12 +3846,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3909,12 +3908,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205">
-        <v>0.15187179565429701</v>
+        <v>0.145111373901367</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3926,7 +3925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3994,12 +3993,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
       <c r="B210">
-        <v>7.6379728317260698E-4</v>
+        <v>7.4169468879699697E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -4011,12 +4010,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
       <c r="B211">
-        <v>8.2047902047634094E-5</v>
+        <v>7.8593790531158409E-5</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4028,12 +4027,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212">
-        <v>7.6436554081737999E-7</v>
+        <v>7.30340601876378E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4045,7 +4044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4105,12 +4104,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
       <c r="B216">
-        <v>4.77728462219238E-2</v>
+        <v>4.56462860107422E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4125,7 +4124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4365,12 +4364,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4393,12 +4392,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
       <c r="B235">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4410,12 +4409,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4427,12 +4426,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.27603659057617203</v>
+        <v>0.27548773193359399</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4444,12 +4443,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4461,12 +4460,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
       <c r="B239">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4478,12 +4477,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4495,12 +4494,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4512,12 +4511,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
       <c r="B242">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -4529,7 +4528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4546,12 +4545,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.32512941490859E-6</v>
+        <v>1.3224943540990401E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4563,7 +4562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4723,12 +4722,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>8.8047256469726609E-2</v>
+        <v>8.7872177124023398E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4743,7 +4742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4883,12 +4882,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4911,12 +4910,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
       <c r="B267">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D267" t="s">
         <v>2</v>
@@ -4928,12 +4927,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4945,12 +4944,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.16384724426269501</v>
+        <v>0.15781555175781301</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4962,12 +4961,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4979,12 +4978,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
       <c r="B271">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -4996,12 +4995,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5013,12 +5012,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5030,12 +5029,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
       <c r="B274">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -5047,7 +5046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5064,12 +5063,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>7.8655796824023094E-7</v>
+        <v>7.5760250911116604E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5081,7 +5080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5241,12 +5240,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>5.2262271881103502E-2</v>
+        <v>5.0338348388671912E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5261,7 +5260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5401,12 +5400,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5429,12 +5428,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
       <c r="B299">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -5446,12 +5445,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5463,12 +5462,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.207174346923828</v>
+        <v>0.20301399230957001</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5480,12 +5479,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5497,12 +5496,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
       <c r="B303">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -5514,12 +5513,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5531,12 +5530,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5548,12 +5547,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
       <c r="B306">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -5565,7 +5564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5582,12 +5581,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>9.9455215968191612E-7</v>
+        <v>9.7458017989993095E-7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5599,7 +5598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5759,12 +5758,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>6.6082298278808599E-2</v>
+        <v>6.4755271911621087E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5779,7 +5778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5919,12 +5918,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5947,12 +5946,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
       <c r="B331">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -5964,12 +5963,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5981,12 +5980,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.16384724426269501</v>
+        <v>0.15781555175781301</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5998,12 +5997,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6015,12 +6014,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
       <c r="B335">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -6032,12 +6031,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6049,12 +6048,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6066,12 +6065,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
       <c r="B338">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -6083,7 +6082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6100,12 +6099,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>7.8655796824023094E-7</v>
+        <v>7.5760250911116604E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6117,7 +6116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6277,12 +6276,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>5.2262271881103502E-2</v>
+        <v>5.0338348388671912E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6297,7 +6296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6437,12 +6436,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6465,12 +6464,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
       <c r="B363">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -6482,12 +6481,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6499,12 +6498,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.27603659057617203</v>
+        <v>0.27548773193359399</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6516,12 +6515,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6533,12 +6532,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
       <c r="B367">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -6550,12 +6549,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6567,12 +6566,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6584,12 +6583,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
       <c r="B370">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6601,7 +6600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6618,12 +6617,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.32512941490859E-6</v>
+        <v>1.3224943540990401E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6635,7 +6634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6795,12 +6794,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>8.8047256469726609E-2</v>
+        <v>8.7872177124023398E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6815,7 +6814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6955,12 +6954,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6983,12 +6982,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>43</v>
       </c>
       <c r="B395">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -7000,12 +6999,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7017,12 +7016,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.16384724426269501</v>
+        <v>0.15781555175781301</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7035,12 +7034,12 @@
       </c>
       <c r="K397" s="8"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7052,12 +7051,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>39</v>
       </c>
       <c r="B399">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -7069,12 +7068,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7087,12 +7086,12 @@
       </c>
       <c r="K400" s="8"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7105,12 +7104,12 @@
       </c>
       <c r="K401" s="7"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11">
       <c r="A402" t="s">
         <v>36</v>
       </c>
       <c r="B402">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D402" t="s">
         <v>2</v>
@@ -7122,7 +7121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7139,12 +7138,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>7.8655796824023094E-7</v>
+        <v>7.5760250911116604E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7156,7 +7155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7316,12 +7315,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>5.2262271881103502E-2</v>
+        <v>5.0338348388671912E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7336,7 +7335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7460,7 +7459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7476,12 +7475,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7504,12 +7503,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
       <c r="B427">
-        <v>1.21408313512802E-4</v>
+        <v>1.2756547331809999E-4</v>
       </c>
       <c r="D427" t="s">
         <v>2</v>
@@ -7521,12 +7520,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>4.7172042541205903E-6</v>
+        <v>7.1624475531279996E-6</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7538,12 +7537,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.207174346923828</v>
+        <v>0.20301399230957001</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7555,12 +7554,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>1.31759738922119E-3</v>
+        <v>1.61365365982056E-3</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7572,12 +7571,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
       <c r="B431">
-        <v>4.2698341421782993E-6</v>
+        <v>5.2215699106454794E-6</v>
       </c>
       <c r="D431" t="s">
         <v>2</v>
@@ -7589,12 +7588,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>3.0645411461591698E-6</v>
+        <v>4.6530980616807901E-6</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7606,12 +7605,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>3.3418092876672713E-5</v>
+        <v>5.0740927457809403E-5</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7623,12 +7622,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
       <c r="B434">
-        <v>2.01337531208992E-4</v>
+        <v>3.77696216106415E-4</v>
       </c>
       <c r="D434" t="s">
         <v>2</v>
@@ -7640,7 +7639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7657,12 +7656,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>9.9455215968191612E-7</v>
+        <v>9.7458017989993095E-7</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7674,7 +7673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7834,12 +7833,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>6.6082298278808599E-2</v>
+        <v>6.4755271911621087E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7854,7 +7853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7954,88 +7953,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
     </row>
-    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
     </row>
-    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
     </row>
-    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
     </row>
-    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
     </row>
-    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
     </row>
-    <row r="696" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
     </row>
-    <row r="734" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="15.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
     </row>
-    <row r="810" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
